--- a/overview.xlsx
+++ b/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwan\Documents\0-Science\0-6 Mate-Analysis\0-6-1Hydraulic\submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C8E57D-D935-4255-B22B-344D392A1A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495E7A7-792D-4974-9A79-15793FAB9F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42618A6A-96A8-483E-81C5-64424DA3937D}"/>
   </bookViews>
@@ -766,35 +766,11 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -804,21 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -840,6 +801,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,1880 +1157,1880 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C124EA3-06F9-4677-9A66-9E0B1BBBF968}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="36" style="23" customWidth="1"/>
-    <col min="11" max="11" width="74.33203125" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="5.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="32.5546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="36" style="10" customWidth="1"/>
+    <col min="11" max="11" width="74.33203125" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="18">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="21">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="14" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="14" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="21">
         <v>4</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="21">
         <v>2</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="14" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="14" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="14" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="14" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="14" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="14" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="14" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="21">
         <v>6</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="21">
         <v>4</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="14" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="14" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="14" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="21">
         <v>7</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="21">
         <v>2</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="14" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="14" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="14" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="14" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+      <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="4">
         <v>5</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="A35" s="22">
         <v>9</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="14" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="21">
         <v>10</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="21">
         <v>4</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="14" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="14" t="s">
+      <c r="I38" s="22"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="14" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="14" t="s">
+      <c r="I39" s="22"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="21">
         <v>11</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="21">
         <v>3</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="14" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="4">
         <v>12</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="4">
         <v>2</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="14"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+      <c r="A43" s="4">
         <v>13</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="4">
         <v>5</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="21">
         <v>14</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="21">
         <v>2</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="15" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="15" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="15" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="15" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="15" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="21">
         <v>15</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="4">
         <v>20</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="14">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="4">
         <v>15</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="14" t="s">
+      <c r="E51" s="21"/>
+      <c r="F51" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="14" t="s">
+      <c r="H51" s="21"/>
+      <c r="I51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="14" t="s">
+      <c r="J51" s="21"/>
+      <c r="K51" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="14">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="4">
         <v>11</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="14" t="s">
+      <c r="E52" s="21"/>
+      <c r="F52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="14" t="s">
+      <c r="H52" s="21"/>
+      <c r="I52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="14" t="s">
+      <c r="J52" s="21"/>
+      <c r="K52" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="14">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="4">
         <v>17</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="14" t="s">
+      <c r="E53" s="21"/>
+      <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="15" t="s">
+      <c r="H53" s="21"/>
+      <c r="I53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="14" t="s">
+      <c r="J53" s="21"/>
+      <c r="K53" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+      <c r="A54" s="21">
         <v>16</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14" t="s">
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+      <c r="A58" s="21">
         <v>17</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="21">
         <v>5</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="14" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="14" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="14" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="14" t="s">
+      <c r="H61" s="21"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
+      <c r="A62" s="21">
         <v>18</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="4">
         <v>20</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="21">
         <v>5</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K62" s="14" t="s">
+      <c r="K62" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="14">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="4">
         <v>40</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="14" t="s">
+      <c r="E63" s="21"/>
+      <c r="F63" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="14">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="4">
         <v>2</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="14" t="s">
+      <c r="E64" s="21"/>
+      <c r="F64" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="14">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="4">
         <v>20</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="14" t="s">
+      <c r="E65" s="21"/>
+      <c r="F65" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
+      <c r="A66" s="21">
         <v>19</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="21">
         <v>5</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="H66" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="I66" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="12" t="s">
+      <c r="J66" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="15" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="14" t="s">
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A68" s="14">
+      <c r="A68" s="4">
         <v>20</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="4">
         <v>15</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
+      <c r="A69" s="21">
         <v>21</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="21">
         <v>2</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="H69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="14" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="12"/>
-      <c r="K70" s="14" t="s">
+      <c r="J70" s="21"/>
+      <c r="K70" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
+      <c r="A71" s="21">
         <v>22</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="21">
         <v>4</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="14" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="14" t="s">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
+      <c r="A74" s="21">
         <v>23</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="21">
         <v>3</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="12" t="s">
+      <c r="G74" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="14" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
+      <c r="A76" s="21">
         <v>24</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="21">
         <v>23</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G76" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I76" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="15" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K78" s="15" t="s">
+      <c r="K78" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="15" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
+      <c r="A80" s="21">
         <v>25</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H80" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="I80" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K80" s="15" t="s">
+      <c r="K80" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="14" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="15" t="s">
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19" t="s">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="20" t="s">
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G91" s="25" t="s">
+      <c r="G91" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3064,6 +3064,7 @@
     <mergeCell ref="H71:H73"/>
     <mergeCell ref="I71:I73"/>
     <mergeCell ref="J71:J73"/>
+    <mergeCell ref="F71:F73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
@@ -3074,7 +3075,6 @@
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
     <mergeCell ref="G69:G70"/>
     <mergeCell ref="H69:H70"/>
     <mergeCell ref="J69:J70"/>
@@ -3108,6 +3108,12 @@
     <mergeCell ref="E58:E61"/>
     <mergeCell ref="H58:H61"/>
     <mergeCell ref="I58:I61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="C50:C53"/>
@@ -3121,6 +3127,9 @@
     <mergeCell ref="G44:G49"/>
     <mergeCell ref="H44:H49"/>
     <mergeCell ref="I44:I49"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="I40:I41"/>
@@ -3148,16 +3157,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="J24:J28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
@@ -3172,6 +3171,16 @@
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J24:J28"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="A21:A23"/>
@@ -3187,9 +3196,9 @@
     <mergeCell ref="F12:F20"/>
     <mergeCell ref="G12:G20"/>
     <mergeCell ref="H12:H20"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="I12:I20"/>
+    <mergeCell ref="J12:J14"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
@@ -3197,6 +3206,8 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:K3"/>
@@ -3207,24 +3218,13 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I12:I20"/>
-    <mergeCell ref="J12:J14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwan\Documents\0-Science\0-6 Mate-Analysis\0-6-1Hydraulic\submit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-11 Papers/Meta paper/major_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495E7A7-792D-4974-9A79-15793FAB9F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{00E190E9-F368-4C59-97C3-D38C7F34E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CB18F0-F194-4B36-A6FE-D9540DEA1D7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42618A6A-96A8-483E-81C5-64424DA3937D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Leuther2019" localSheetId="0">Sheet1!$A$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="244">
   <si>
     <t>No.</t>
   </si>
@@ -672,6 +675,138 @@
   </si>
   <si>
     <t>location Taupo</t>
+  </si>
+  <si>
+    <t>irrigation treatment</t>
+  </si>
+  <si>
+    <t>Nemera, D. B., Yalin, D., Levy, G. J., Cohen, S., Shenker, M., Gothelf, R., Tarchitzky J., Bar-Tal A., 2023. Remediation and mitigation measures to counteract orchard soil degradation by treated wastewater irrigation. Soil Till. Res. 234, 105846. https://doi.org/10.1016/j.still.2023.105846.</t>
+  </si>
+  <si>
+    <t>Reference:</t>
+  </si>
+  <si>
+    <t>Okebalama, C.B., Marschner, B., 2023. Reapplication of biochar, sewage waste water, and NPK fertilizers affects soil fertility, aggregate stability, and carbon and nitrogen in dry-stable aggregates of semi-arid soil. Sci. Total Environ. 866, 161203. https://doi.org/10.1016/j.scitotenv.2022.161203.</t>
+  </si>
+  <si>
+    <t>Ibrahimi, K., Attia, K.B., Amami, R., Am´erico-Pinheiro, J.H.P., Sher, F., 2022. Assessment of three decades treated wastewater impact on soil quality in semi-arid agroecosystem. J. Saudi Soc. Agric. Sci. 21 (8), 525–535. https://doi.org/10.1016/j.jssas.2022.03.002.</t>
+  </si>
+  <si>
+    <t>Cakmakci, T., Sahin, U., 2021. Productivity and heavy metal pollution management in a silage maize field with reduced recycled wastewater applications with different irrigation methods. J. Environ. Manage. 291, 112602. https://doi.org/10.1016/j.jenvman.2021.112602.</t>
+  </si>
+  <si>
+    <t>Nyagatare , G., Shingiro, C., Nyiranziringirimana , C., 2021. Effect of domestic greywater reuse for irrigation on soil physical and chemical characteristics and tomatoes growth. Journal of Agriculture and Environment for International Development, 115(2), 51–63. https://doi.org/10.36253/jaeid-12069.</t>
+  </si>
+  <si>
+    <t>municipal wastewater</t>
+  </si>
+  <si>
+    <t>TWW from the nearby city</t>
+  </si>
+  <si>
+    <t>municipal wastewater</t>
+  </si>
+  <si>
+    <t>Coelho, A. P., da Silva, M. F., de Faria, R. T., Fernandes, C., de Figueiredo Dantas, G., Santos, G. O., 2020. Long-term impact of fertigation with treated sewage effluent on the physical soil quality. Environmental Pollution, 266, 115007. https://doi.org/10.1016/j.envpol.2020.115007.</t>
+  </si>
+  <si>
+    <t>sewage</t>
+  </si>
+  <si>
+    <t>Demir, A. D., &amp; Şahin, Ü., 2019. Changes in physical and hydraulic properties of a clay soil due to the irrigation of tomatoes with recycled wastewater. Eurasian Journal of Forest Science, 7(3), 252-268. https://doi.org/10.31195/ejejfs.585595.</t>
+  </si>
+  <si>
+    <t>wastewater  collected  from  city</t>
+  </si>
+  <si>
+    <t>Zalacáin, D., Bienes, R., Sastre-Merlín, A., Martínez-Pérez, S., García-Díaz, A., 2019. Influence of reclaimed water irrigation in soil physical properties of urban parks: A case study in Madrid (Spain). Catena, 180, 333-340. https://doi.org/10.1016/j.catena.2019.05.012.</t>
+  </si>
+  <si>
+    <t>Reclaimed water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zema, D. A., Lucas-Borja, M. E., Andiloro, S., Tamburino, V., Zimbone, S. M., 2019. Short-term effects of olive mill wastewater application on the hydrological and physico-chemical properties of a loamy soil. Agric. Water Manage, 221, 312-321. https://doi.org/10.1016/j.agwat.2019.04.011. </t>
+  </si>
+  <si>
+    <t>olive mill wastewater</t>
+  </si>
+  <si>
+    <t>Leuther, F., Schlüter, S., Wallach, R., Vogel, H.-J., 2019. Structure and hydraulic properties in soils under long-term irrigation with treated wastewater. Geoderma 333, 90–98. https://doi.org/10.1016/j.geoderma.2018.07.015.</t>
+  </si>
+  <si>
+    <t>wastewater</t>
+  </si>
+  <si>
+    <t>Biswas, S. K., &amp; Mojid, M. A., 2018. Changes in soil properties in response to irrigation of potato by urban wastewater. Communications in Soil Science and Plant Analysis, 49(7), 828-839. https://doi.org/10.1080/00103624.2018.1435684.</t>
+  </si>
+  <si>
+    <t>wastewater from drainage canal</t>
+  </si>
+  <si>
+    <t>Paudel, I., Bar-Tal, A., Levy, G.J., Rotbart, N., Ephrath, J.E., Cohen, S., 2018. Treated wastewater irrigation: Soil variables and grapefruit tree performance. Agric. Water Manag. 204, 126–137. https://doi.org/10.1016/j.agwat.2018.04.006.</t>
+  </si>
+  <si>
+    <t>wastewater </t>
+  </si>
+  <si>
+    <t>Gharaibeh, M.A., Ghezzehei, T.A., Albalasmeh, A.A., Alghzawi, Z.M., 2016. Alteration of physical and chemical characteristics of clayey soils by irrigation with treated waste water. Geoderma 276, 33–40. https://doi.org/10.1016/j.geoderma.2016.04.011.</t>
+  </si>
+  <si>
+    <t>Schacht, K., Marschner, B., 2015. Treated wastewater irrigation effects on soil hydraulic conductivity and aggregate stability of loamy soils in Israel. J. Hydro. Hydromech. 1, 47–54. https://doi.org/10.1515/johh-2015-0010.</t>
+  </si>
+  <si>
+    <t>Tunc, T., &amp; Sahin, U., 2015. The changes in the physical and hydraulic properties of a loamy soil under irrigation with simpler-reclaimed wastewaters. Agric. Water Manage, 158, 213-224. https://doi.org/10.1016/j.agwat.2015.05.012.</t>
+  </si>
+  <si>
+    <t> Urban wastewater</t>
+  </si>
+  <si>
+    <t>Gharaibeh, M. A., &amp; Eltaif, N. I., 2014. Impact of Water Quality, Cultivation, and Cropping Systems on Infiltration and Physical Properties of an Arid Clay Soil. Soil &amp; Water Research, 9(3). https://doi.org/10.17221/20/2013-SWR.</t>
+  </si>
+  <si>
+    <t>Levy, G. J., Lordian, A., Goldstein, D., &amp; Borisover, M., 2014. Soil structural indices' dependence on irrigation water quality and their association with chromophoric components in dissolved organic matter. European journal of soil science, 65(2), 197-205. https://doi.org/10.1111/ejss.12116.</t>
+  </si>
+  <si>
+    <t>domestic sewage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morugán-Coronado, A., Arcenegui, V., García-Orenes, F., Mataix-Solera, J., Mataix-Beneyto, J., 2013. Application of soil quality indices to assess the status of agricultural soils irrigated with treated wastewaters. Solid earth, 4(1), 119-127. https://doi.org/10.5194/se-4-119-2013. </t>
+  </si>
+  <si>
+    <t>Adhikari, P., Shukla, M.K., Mexal, J.G., Sharma, P., 2011. Assessment of the soil physical and chemical properties of desert soils irrigated with treated wastewater using principal component analysis. Soil Sci. 176, 356–366. https://doi.org/10.1097/SS.0b013e31821f4a72.</t>
+  </si>
+  <si>
+    <t>Assouline, S., Narkis, K., 2011. Effects of long-term irrigation with treated wastewater on the hydraulic properties of a clayey soil. Water Resour. Res. 47(8). https://doi.org/10.1029/2011WR010498.</t>
+  </si>
+  <si>
+    <t>domestic wastewater</t>
+  </si>
+  <si>
+    <t>Morug´an-Coronado, A., Garc´ıa-Orenes, F., Mataix-Solera, J., Arcenegui, V., Mataix-Beneyto, J., 2011. Short-term effects of treated wastewater irrigation on Mediterranean calcareous soil. Soil Till. Res. 112, 18–26. https://doi.org/10.1016/j.still.2010.11.004.</t>
+  </si>
+  <si>
+    <t>Babcock, M., Shukla, M. K., Picchioni, G. A., Mexal, J. G., Daniel, D., 2009. Chemical and physical properties of Chihuahuan desert soils irrigated with industrial effluent. Arid Land Research and Management, 23(1), 47-66. https://doi.org/10.1080/15324980802598607.</t>
+  </si>
+  <si>
+    <t>industrial effluent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandal, U. K., Bhardwaj, A. K., Warrington, D. N., Goldstein, D., Tal, A. B., Levy, G. J., 2008. Changes in soil hydraulic conductivity, runoff, and soil loss due to irrigation with different types of saline–sodic water. Geoderma, 144(3-4), 509-516. https://doi.org/10.1016/j.geoderma.2008.01.005. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhardwaj, A. K., Goldstein, D., Azenkot, A., &amp; Levy, G. J., 2007. Irrigation with treated wastewater under two different irrigation methods: Effects on hydraulic conductivity of a clay soil. Geoderma, 140(1-2), 199-206. https://doi.org/10.1016/j.geoderma.2007.04.003. </t>
+  </si>
+  <si>
+    <t>Sparling, G. P., Schipper, L. A., &amp; Russell, J. M., 2001. Changes in soil properties after application of dairy factory effluent to New Zealand volcanic ash and pumice soils. Soil Research, 39(3), 505-518. https://doi.org/10.1071/SR00043.</t>
+  </si>
+  <si>
+    <t>dairy factory effluent with detailed quality</t>
+  </si>
+  <si>
+    <t>sewage waste water with detailed quality</t>
+  </si>
+  <si>
+    <t>laundry grey water with detailed quality</t>
   </si>
 </sst>
 </file>
@@ -764,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -802,6 +937,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,19 +979,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,6 +1003,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C124EA3-06F9-4677-9A66-9E0B1BBBF968}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,13 +1322,14 @@
     <col min="6" max="6" width="20.88671875" style="10" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" style="12" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="36" style="10" customWidth="1"/>
-    <col min="11" max="11" width="74.33203125" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="10"/>
+    <col min="9" max="9" width="49.44140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="36" style="10" customWidth="1"/>
+    <col min="12" max="12" width="74.33203125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1186,42 +1338,44 @@
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="8"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="20"/>
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1235,94 +1389,103 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="24">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="2" t="s">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="2" t="s">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="2" t="s">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1347,498 +1510,536 @@
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
+      <c r="I8" s="29" t="s">
+        <v>242</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="14">
         <v>30</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="K9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="4" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="4" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="14">
         <v>2</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="K12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="4" t="s">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="4" t="s">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22" t="s">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="4" t="s">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="4" t="s">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22" t="s">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="4" t="s">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="4" t="s">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>5</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="K21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="4" t="s">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="4" t="s">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+    <row r="24" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>6</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="14">
         <v>4</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="K24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="4" t="s">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="4" t="s">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="4" t="s">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="4" t="s">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+    <row r="29" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
         <v>7</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="14">
         <v>2</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="K29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="4" t="s">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="4" t="s">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="4" t="s">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="4" t="s">
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>8</v>
       </c>
@@ -1863,80 +2064,87 @@
       <c r="H34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+    <row r="35" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
         <v>9</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="K35" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="4" t="s">
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
         <v>10</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="14">
         <v>4</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="14" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1948,22 +2156,25 @@
       <c r="H37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J37" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="K37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1973,18 +2184,19 @@
       <c r="H38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="4" t="s">
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="4" t="s">
         <v>99</v>
       </c>
@@ -1994,63 +2206,68 @@
       <c r="H39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="4" t="s">
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
         <v>11</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="14">
         <v>3</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="K40" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="4" t="s">
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>12</v>
       </c>
@@ -2075,15 +2292,18 @@
       <c r="H42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>13</v>
       </c>
@@ -2109,139 +2329,150 @@
         <v>118</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+    <row r="44" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
         <v>14</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="14">
         <v>2</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J44" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="K44" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="L44" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="5" t="s">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="5" t="s">
+    <row r="46" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="5" t="s">
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="5" t="s">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="5" t="s">
+    <row r="49" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
         <v>15</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="4">
         <v>20</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="14" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -2250,180 +2481,192 @@
       <c r="G50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J50" s="21" t="s">
+      <c r="K50" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4">
         <v>15</v>
       </c>
-      <c r="E51" s="21"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="4" t="s">
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J51" s="21"/>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="14"/>
+      <c r="L51" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4">
         <v>11</v>
       </c>
-      <c r="E52" s="21"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="4" t="s">
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J52" s="21"/>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="14"/>
+      <c r="L52" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+    <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4">
         <v>17</v>
       </c>
-      <c r="E53" s="21"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="5" t="s">
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="14"/>
+      <c r="L53" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+    <row r="54" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
         <v>16</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J54" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4" t="s">
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4" t="s">
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4" t="s">
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+    <row r="58" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
         <v>17</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="14">
         <v>5</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="14" t="s">
         <v>148</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -2432,86 +2675,92 @@
       <c r="G58" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H58" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="J58" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="J58" s="21" t="s">
+      <c r="K58" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="L58" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-    </row>
-    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="4" t="s">
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
         <v>18</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D62" s="4">
         <v>20</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="14">
         <v>5</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -2523,24 +2772,27 @@
       <c r="H62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="L62" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
+    <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="4">
         <v>40</v>
       </c>
-      <c r="E63" s="21"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="4" t="s">
         <v>157</v>
       </c>
@@ -2550,24 +2802,25 @@
       <c r="H63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="14"/>
+      <c r="J63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
+    <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="4">
         <v>2</v>
       </c>
-      <c r="E64" s="21"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="4" t="s">
         <v>159</v>
       </c>
@@ -2577,24 +2830,25 @@
       <c r="H64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="14"/>
+      <c r="J64" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="L64" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
+    <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="4">
         <v>20</v>
       </c>
-      <c r="E65" s="21"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="4" t="s">
         <v>161</v>
       </c>
@@ -2604,30 +2858,31 @@
       <c r="H65" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="14"/>
+      <c r="J65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="L65" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
         <v>19</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="14">
         <v>5</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="15" t="s">
         <v>121</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -2636,39 +2891,43 @@
       <c r="G66" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="H66" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J66" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="21" t="s">
+      <c r="K66" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="L66" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
+    <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="5" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="4" t="s">
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>20</v>
       </c>
@@ -2693,279 +2952,301 @@
       <c r="H68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="L68" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+    <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="14">
         <v>21</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="14">
         <v>2</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G69" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H69" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J69" s="21" t="s">
+      <c r="K69" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="L69" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="4" t="s">
+    <row r="70" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="21"/>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="14"/>
+      <c r="L70" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+    <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
         <v>22</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="14">
         <v>4</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="21" t="s">
+      <c r="H71" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="I71" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="J71" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="J71" s="21" t="s">
+      <c r="K71" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="L71" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="4" t="s">
+    <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="4" t="s">
+    <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" s="21">
+    <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="14">
         <v>23</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="14">
         <v>3</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="21" t="s">
+      <c r="H74" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="I74" s="21" t="s">
+      <c r="I74" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J74" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="21" t="s">
+      <c r="K74" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="L74" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="4" t="s">
+    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A76" s="21">
+    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A76" s="14">
         <v>24</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="14">
         <v>23</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G76" s="21" t="s">
+      <c r="G76" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="H76" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="21" t="s">
+      <c r="I76" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J76" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J76" s="21" t="s">
+      <c r="K76" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="L76" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="5" t="s">
+    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21" t="s">
+    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="L78" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="5" t="s">
+    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" s="21">
+    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="14">
         <v>25</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="14" t="s">
         <v>98</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -2974,215 +3255,228 @@
       <c r="G80" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H80" s="21" t="s">
+      <c r="H80" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I80" s="21" t="s">
+      <c r="I80" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J80" s="21" t="s">
+      <c r="K80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="L80" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
+    <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="4" t="s">
         <v>194</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="5" t="s">
+      <c r="H81" s="14"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+    <row r="82" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="6" t="s">
         <v>197</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="7" t="s">
+      <c r="H82" s="16"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G91" s="12" t="s">
-        <v>17</v>
+    <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A109" s="13" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="189">
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="I44:I49"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
+  <mergeCells count="209">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K18:K20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
@@ -3197,34 +3491,171 @@
     <mergeCell ref="G12:G20"/>
     <mergeCell ref="H12:H20"/>
     <mergeCell ref="F21:F23"/>
+    <mergeCell ref="J12:J20"/>
+    <mergeCell ref="K12:K14"/>
     <mergeCell ref="I12:I20"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="L58:L60"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="K58:K61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-11 Papers/Meta paper/major_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{00E190E9-F368-4C59-97C3-D38C7F34E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CB18F0-F194-4B36-A6FE-D9540DEA1D7D}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{00E190E9-F368-4C59-97C3-D38C7F34E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CCD16CA-B6B7-40F0-BD85-9D23EC7F2B42}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42618A6A-96A8-483E-81C5-64424DA3937D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42618A6A-96A8-483E-81C5-64424DA3937D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="243">
   <si>
     <t>No.</t>
   </si>
@@ -617,9 +617,6 @@
   </si>
   <si>
     <t>Mandal et al.(2008)</t>
-  </si>
-  <si>
-    <t>Spring water</t>
   </si>
   <si>
     <t xml:space="preserve">fast wettting </t>
@@ -940,6 +937,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -947,6 +947,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -978,15 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C124EA3-06F9-4677-9A66-9E0B1BBBF968}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,38 +1341,38 @@
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -1397,40 +1394,40 @@
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="21"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="27">
         <v>10</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1438,49 +1435,49 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1510,8 +1507,8 @@
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>242</v>
+      <c r="I8" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
@@ -1522,37 +1519,37 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="15">
         <v>30</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1560,73 +1557,73 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="15">
         <v>2</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="14" t="s">
+      <c r="I12" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>45</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1634,49 +1631,49 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16" t="s">
         <v>49</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -1684,49 +1681,49 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -1734,69 +1731,69 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="15">
         <v>5</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="14" t="s">
+      <c r="I21" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="15" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -1804,69 +1801,69 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="15">
         <v>6</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="15">
         <v>4</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="14" t="s">
+      <c r="I24" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="15" t="s">
         <v>70</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -1874,101 +1871,101 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>7</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="15">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J29" s="15" t="s">
+      <c r="I29" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -1976,65 +1973,65 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="4" t="s">
         <v>82</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>87</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>30</v>
@@ -2078,37 +2075,37 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
+      <c r="A35" s="16">
         <v>9</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="I35" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="15" t="s">
         <v>95</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -2116,35 +2113,35 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="15">
         <v>10</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="15">
         <v>4</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2156,13 +2153,13 @@
       <c r="H37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J37" s="15" t="s">
+      <c r="I37" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="15" t="s">
         <v>95</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -2170,11 +2167,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2184,19 +2181,19 @@
       <c r="H38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="4" t="s">
         <v>99</v>
       </c>
@@ -2206,45 +2203,45 @@
       <c r="H39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+      <c r="A40" s="15">
         <v>11</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="15">
         <v>3</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="J40" s="14" t="s">
+      <c r="I40" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -2252,17 +2249,17 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="4" t="s">
         <v>111</v>
       </c>
@@ -2293,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>114</v>
@@ -2329,7 +2326,7 @@
         <v>118</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>119</v>
@@ -2342,37 +2339,37 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44" s="15">
         <v>14</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="15">
         <v>2</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="J44" s="14" t="s">
+      <c r="I44" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J44" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="15" t="s">
         <v>95</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -2380,99 +2377,99 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
       <c r="L47" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
+      <c r="A50" s="15">
         <v>15</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="4">
         <v>20</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -2481,16 +2478,16 @@
       <c r="G50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>219</v>
+      <c r="I50" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="15" t="s">
         <v>95</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -2498,106 +2495,106 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="4">
         <v>15</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="15"/>
       <c r="F51" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K51" s="14"/>
+      <c r="K51" s="15"/>
       <c r="L51" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="4">
         <v>11</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K52" s="14"/>
+      <c r="K52" s="15"/>
       <c r="L52" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="4">
         <v>17</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="15"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="15"/>
       <c r="L53" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
+      <c r="A54" s="15">
         <v>16</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J54" s="15" t="s">
+      <c r="I54" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J54" s="16" t="s">
         <v>142</v>
       </c>
       <c r="K54" s="4"/>
@@ -2606,67 +2603,67 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
+      <c r="A58" s="15">
         <v>17</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="15">
         <v>5</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="15" t="s">
         <v>148</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -2675,92 +2672,92 @@
       <c r="G58" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="J58" s="15" t="s">
+      <c r="I58" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="J58" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K58" s="14" t="s">
+      <c r="K58" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="14" t="s">
+      <c r="L58" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="14"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="15"/>
       <c r="L61" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
+      <c r="A62" s="15">
         <v>18</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D62" s="4">
         <v>20</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="15">
         <v>5</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -2772,8 +2769,8 @@
       <c r="H62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="14" t="s">
-        <v>219</v>
+      <c r="I62" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>19</v>
@@ -2786,13 +2783,13 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="4">
         <v>40</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="4" t="s">
         <v>157</v>
       </c>
@@ -2802,7 +2799,7 @@
       <c r="H63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="4" t="s">
         <v>19</v>
       </c>
@@ -2814,13 +2811,13 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="4">
         <v>2</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="4" t="s">
         <v>159</v>
       </c>
@@ -2830,7 +2827,7 @@
       <c r="H64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="4" t="s">
         <v>19</v>
       </c>
@@ -2842,13 +2839,13 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="4">
         <v>20</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
         <v>161</v>
       </c>
@@ -2858,7 +2855,7 @@
       <c r="H65" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="4" t="s">
         <v>94</v>
       </c>
@@ -2870,19 +2867,19 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="14">
+      <c r="A66" s="15">
         <v>19</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="15">
         <v>5</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="16" t="s">
         <v>121</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -2891,16 +2888,16 @@
       <c r="G66" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I66" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J66" s="14" t="s">
+      <c r="I66" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="15" t="s">
         <v>166</v>
       </c>
       <c r="L66" s="4" t="s">
@@ -2908,21 +2905,21 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
       <c r="F67" s="5" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
       <c r="L67" s="4" t="s">
         <v>169</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>133</v>
@@ -2966,37 +2963,37 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="14">
+      <c r="A69" s="15">
         <v>21</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="15">
         <v>2</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="14" t="s">
-        <v>223</v>
+      <c r="I69" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="15" t="s">
         <v>35</v>
       </c>
       <c r="L69" s="4" t="s">
@@ -3004,55 +3001,55 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="14">
+      <c r="A71" s="15">
         <v>22</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="15">
         <v>4</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="J71" s="15" t="s">
+      <c r="I71" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="15" t="s">
         <v>95</v>
       </c>
       <c r="L71" s="4" t="s">
@@ -3060,255 +3057,255 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="14"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="15"/>
       <c r="L72" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="14"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="15"/>
       <c r="L73" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
+      <c r="A74" s="15">
         <v>23</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="15">
         <v>3</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L74" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I74" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J74" s="14" t="s">
+    </row>
+    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
+        <v>24</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="15">
+        <v>23</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J76" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K76" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="L74" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A76" s="14">
-        <v>24</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="14">
-        <v>23</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="5" t="s">
+      <c r="L78" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L78" s="5" t="s">
+    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="5" t="s">
+    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
+        <v>25</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" s="14">
-        <v>25</v>
-      </c>
-      <c r="B80" s="14" t="s">
+      <c r="C80" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="D80" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="E80" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I80" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="J80" s="14" t="s">
+      <c r="I80" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="J80" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K80" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
       <c r="F81" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="6" t="s">
+      <c r="G82" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="H82" s="17"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3317,132 +3314,132 @@
     </row>
     <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-11 Papers/Meta paper/major_revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/major/remove_25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{00E190E9-F368-4C59-97C3-D38C7F34E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CCD16CA-B6B7-40F0-BD85-9D23EC7F2B42}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{A7AD7ED3-68D1-4245-AE23-1F23E38A773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625EDAC7-1C93-4861-BB28-649EC72C0E35}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42618A6A-96A8-483E-81C5-64424DA3937D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42618A6A-96A8-483E-81C5-64424DA3937D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Leuther2019" localSheetId="0">Sheet1!$A$94</definedName>
+    <definedName name="Leuther2019" localSheetId="0">Sheet1!$A$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="233">
   <si>
     <t>No.</t>
   </si>
@@ -647,33 +647,6 @@
 repacked soil columns</t>
   </si>
   <si>
-    <t>Sparling et al.(2001)</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>&gt; 50</t>
-  </si>
-  <si>
-    <t>silt loam</t>
-  </si>
-  <si>
-    <t>location Horotiu</t>
-  </si>
-  <si>
-    <t>location Te Kowhai</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>coarse-textured</t>
-  </si>
-  <si>
-    <t>location Taupo</t>
-  </si>
-  <si>
     <t>irrigation treatment</t>
   </si>
   <si>
@@ -719,9 +692,6 @@
     <t>Zalacáin, D., Bienes, R., Sastre-Merlín, A., Martínez-Pérez, S., García-Díaz, A., 2019. Influence of reclaimed water irrigation in soil physical properties of urban parks: A case study in Madrid (Spain). Catena, 180, 333-340. https://doi.org/10.1016/j.catena.2019.05.012.</t>
   </si>
   <si>
-    <t>Reclaimed water</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zema, D. A., Lucas-Borja, M. E., Andiloro, S., Tamburino, V., Zimbone, S. M., 2019. Short-term effects of olive mill wastewater application on the hydrological and physico-chemical properties of a loamy soil. Agric. Water Manage, 221, 312-321. https://doi.org/10.1016/j.agwat.2019.04.011. </t>
   </si>
   <si>
@@ -755,9 +725,6 @@
     <t>Tunc, T., &amp; Sahin, U., 2015. The changes in the physical and hydraulic properties of a loamy soil under irrigation with simpler-reclaimed wastewaters. Agric. Water Manage, 158, 213-224. https://doi.org/10.1016/j.agwat.2015.05.012.</t>
   </si>
   <si>
-    <t> Urban wastewater</t>
-  </si>
-  <si>
     <t>Gharaibeh, M. A., &amp; Eltaif, N. I., 2014. Impact of Water Quality, Cultivation, and Cropping Systems on Infiltration and Physical Properties of an Arid Clay Soil. Soil &amp; Water Research, 9(3). https://doi.org/10.17221/20/2013-SWR.</t>
   </si>
   <si>
@@ -794,16 +761,19 @@
     <t xml:space="preserve">Bhardwaj, A. K., Goldstein, D., Azenkot, A., &amp; Levy, G. J., 2007. Irrigation with treated wastewater under two different irrigation methods: Effects on hydraulic conductivity of a clay soil. Geoderma, 140(1-2), 199-206. https://doi.org/10.1016/j.geoderma.2007.04.003. </t>
   </si>
   <si>
-    <t>Sparling, G. P., Schipper, L. A., &amp; Russell, J. M., 2001. Changes in soil properties after application of dairy factory effluent to New Zealand volcanic ash and pumice soils. Soil Research, 39(3), 505-518. https://doi.org/10.1071/SR00043.</t>
-  </si>
-  <si>
-    <t>dairy factory effluent with detailed quality</t>
-  </si>
-  <si>
-    <t>sewage waste water with detailed quality</t>
-  </si>
-  <si>
-    <t>laundry grey water with detailed quality</t>
+    <t> urban wastewater</t>
+  </si>
+  <si>
+    <t>reclaimed water</t>
+  </si>
+  <si>
+    <t>domestic sewage waste water with detailed quality*</t>
+  </si>
+  <si>
+    <t>laundry grey water with detailed quality*</t>
+  </si>
+  <si>
+    <t>Note: '*' denotes domestic wastewater from daily activities, which, due to detailed measurement and relative safety, qualifies for treatment in this meta-analysis.</t>
   </si>
 </sst>
 </file>
@@ -848,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -874,29 +844,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -913,12 +865,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,9 +872,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -940,25 +883,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,9 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1000,10 +940,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,76 +1239,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C124EA3-06F9-4677-9A66-9E0B1BBBF968}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76:H79"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="49.44140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="36" style="10" customWidth="1"/>
-    <col min="12" max="12" width="74.33203125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="5.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="61.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="36" style="8" customWidth="1"/>
+    <col min="12" max="12" width="74.33203125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1386,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -1394,40 +1330,40 @@
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="23">
         <v>10</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1435,49 +1371,49 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1507,8 +1443,8 @@
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>241</v>
+      <c r="I8" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>30</v>
@@ -1519,37 +1455,37 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>30</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1557,73 +1493,73 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="14" t="s">
         <v>45</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1631,49 +1567,49 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14" t="s">
         <v>49</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -1681,49 +1617,49 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14" t="s">
         <v>53</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -1731,69 +1667,69 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="J21" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -1801,69 +1737,69 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <v>6</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>4</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="I24" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="13" t="s">
         <v>70</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -1871,101 +1807,101 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>7</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>2</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="J29" s="16" t="s">
+      <c r="I29" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -1973,65 +1909,65 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="4" t="s">
         <v>82</v>
       </c>
@@ -2062,7 +1998,7 @@
         <v>87</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>30</v>
@@ -2075,37 +2011,37 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>9</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J35" s="15" t="s">
+      <c r="I35" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -2113,35 +2049,35 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
+      <c r="A37" s="13">
         <v>10</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="13">
         <v>4</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2153,13 +2089,13 @@
       <c r="H37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J37" s="16" t="s">
+      <c r="I37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J37" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -2167,11 +2103,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2181,19 +2117,19 @@
       <c r="H38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="15"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="4" t="s">
         <v>99</v>
       </c>
@@ -2203,45 +2139,45 @@
       <c r="H39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="15"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>11</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>3</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="J40" s="15" t="s">
+      <c r="I40" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="K40" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -2249,17 +2185,17 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="4" t="s">
         <v>111</v>
       </c>
@@ -2290,7 +2226,7 @@
         <v>18</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>114</v>
@@ -2326,7 +2262,7 @@
         <v>118</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>119</v>
@@ -2339,37 +2275,37 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>14</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <v>2</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="J44" s="15" t="s">
+      <c r="I44" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -2377,99 +2313,99 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
       <c r="L45" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
       <c r="L46" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
       <c r="L47" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
       <c r="L48" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
       <c r="L49" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="15">
+      <c r="A50" s="13">
         <v>15</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="4">
         <v>20</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -2478,16 +2414,16 @@
       <c r="G50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="15" t="s">
-        <v>218</v>
+      <c r="I50" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K50" s="15" t="s">
+      <c r="K50" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -2495,106 +2431,106 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="4">
         <v>15</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K51" s="15"/>
+      <c r="K51" s="13"/>
       <c r="L51" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="4">
         <v>11</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K52" s="15"/>
+      <c r="K52" s="13"/>
       <c r="L52" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="4">
         <v>17</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K53" s="15"/>
+      <c r="K53" s="13"/>
       <c r="L53" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15">
+      <c r="A54" s="13">
         <v>16</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J54" s="16" t="s">
+      <c r="I54" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>142</v>
       </c>
       <c r="K54" s="4"/>
@@ -2603,67 +2539,67 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="14"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15">
+      <c r="A58" s="13">
         <v>17</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="13">
         <v>5</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="13" t="s">
         <v>148</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -2672,92 +2608,92 @@
       <c r="G58" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="J58" s="16" t="s">
+      <c r="I58" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J58" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="15"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="13"/>
       <c r="L61" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="15">
+      <c r="A62" s="13">
         <v>18</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D62" s="4">
         <v>20</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="13">
         <v>5</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -2769,8 +2705,8 @@
       <c r="H62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="15" t="s">
-        <v>218</v>
+      <c r="I62" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>19</v>
@@ -2783,13 +2719,13 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="4">
         <v>40</v>
       </c>
-      <c r="E63" s="15"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="4" t="s">
         <v>157</v>
       </c>
@@ -2799,7 +2735,7 @@
       <c r="H63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="15"/>
+      <c r="I63" s="13"/>
       <c r="J63" s="4" t="s">
         <v>19</v>
       </c>
@@ -2811,13 +2747,13 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="4">
         <v>2</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="4" t="s">
         <v>159</v>
       </c>
@@ -2827,7 +2763,7 @@
       <c r="H64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="15"/>
+      <c r="I64" s="13"/>
       <c r="J64" s="4" t="s">
         <v>19</v>
       </c>
@@ -2839,13 +2775,13 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="4">
         <v>20</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="13"/>
       <c r="F65" s="4" t="s">
         <v>161</v>
       </c>
@@ -2855,7 +2791,7 @@
       <c r="H65" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I65" s="15"/>
+      <c r="I65" s="13"/>
       <c r="J65" s="4" t="s">
         <v>94</v>
       </c>
@@ -2867,19 +2803,19 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="15">
+      <c r="A66" s="13">
         <v>19</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="13">
         <v>5</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -2888,16 +2824,16 @@
       <c r="G66" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I66" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J66" s="15" t="s">
+      <c r="I66" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="15" t="s">
+      <c r="K66" s="13" t="s">
         <v>166</v>
       </c>
       <c r="L66" s="4" t="s">
@@ -2905,21 +2841,21 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="5" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="4" t="s">
         <v>169</v>
       </c>
@@ -2950,7 +2886,7 @@
         <v>18</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>133</v>
@@ -2963,37 +2899,37 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="15">
+      <c r="A69" s="13">
         <v>21</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="13">
         <v>2</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="15" t="s">
-        <v>222</v>
+      <c r="I69" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K69" s="15" t="s">
+      <c r="K69" s="13" t="s">
         <v>35</v>
       </c>
       <c r="L69" s="4" t="s">
@@ -3001,55 +2937,55 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
       <c r="J70" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K70" s="15"/>
+      <c r="K70" s="13"/>
       <c r="L70" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="15">
+      <c r="A71" s="13">
         <v>22</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="13">
         <v>4</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="J71" s="16" t="s">
+      <c r="I71" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="K71" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L71" s="4" t="s">
@@ -3057,69 +2993,69 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="15"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="13"/>
       <c r="L72" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="15"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="13"/>
       <c r="L73" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" s="15">
+      <c r="A74" s="13">
         <v>23</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="13">
         <v>3</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I74" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J74" s="15" t="s">
+      <c r="I74" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K74" s="15" t="s">
+      <c r="K74" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L74" s="4" t="s">
@@ -3127,53 +3063,53 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
       <c r="L75" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A76" s="15">
+      <c r="A76" s="13">
         <v>24</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="13">
         <v>23</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J76" s="15" t="s">
+      <c r="I76" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="13" t="s">
         <v>166</v>
       </c>
       <c r="L76" s="5" t="s">
@@ -3181,40 +3117,40 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
       <c r="L77" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15" t="s">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -3226,224 +3162,146 @@
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
-      <c r="L79" s="5" t="s">
+      <c r="L79" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" s="15">
-        <v>25</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" s="15" t="s">
+    <row r="80" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" s="4" t="s">
+    </row>
+    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L80" s="5" t="s">
+    </row>
+    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="5" t="s">
+    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="6" t="s">
+    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H82" s="17"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+    </row>
+    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
+    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
+    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
+    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
+    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
+    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
+    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+    </row>
+    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A109" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="209">
+  <mergeCells count="200">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:L3"/>
@@ -3622,12 +3480,6 @@
     <mergeCell ref="K71:K73"/>
     <mergeCell ref="F71:F73"/>
     <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="H80:H82"/>
     <mergeCell ref="G76:G79"/>
     <mergeCell ref="H76:H79"/>
     <mergeCell ref="J76:J79"/>
@@ -3638,7 +3490,6 @@
     <mergeCell ref="E76:E79"/>
     <mergeCell ref="F76:F79"/>
     <mergeCell ref="I76:I79"/>
-    <mergeCell ref="I80:I82"/>
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="I29:I33"/>
     <mergeCell ref="I35:I36"/>
@@ -3646,8 +3497,6 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I50:I53"/>
     <mergeCell ref="I44:I49"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="K80:K82"/>
     <mergeCell ref="K76:K77"/>
     <mergeCell ref="K78:K79"/>
     <mergeCell ref="I74:I75"/>
